--- a/www/IndicatorsPerCountry/Germany_GDPperCapita_TerritorialRef_1990_2012_CCode_276.xlsx
+++ b/www/IndicatorsPerCountry/Germany_GDPperCapita_TerritorialRef_1990_2012_CCode_276.xlsx
@@ -567,13 +567,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Germany_GDPperCapita_TerritorialRef_1990_2012_CCode_276.xlsx
+++ b/www/IndicatorsPerCountry/Germany_GDPperCapita_TerritorialRef_1990_2012_CCode_276.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="193">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,508 +36,526 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>1146</t>
+    <t>1827</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>807</t>
-  </si>
-  <si>
-    <t>948</t>
-  </si>
-  <si>
-    <t>939</t>
-  </si>
-  <si>
-    <t>1050</t>
-  </si>
-  <si>
-    <t>986</t>
-  </si>
-  <si>
-    <t>1428</t>
-  </si>
-  <si>
-    <t>1408</t>
-  </si>
-  <si>
-    <t>1426</t>
-  </si>
-  <si>
-    <t>1413</t>
-  </si>
-  <si>
-    <t>1443</t>
-  </si>
-  <si>
-    <t>1420</t>
-  </si>
-  <si>
-    <t>1531</t>
-  </si>
-  <si>
-    <t>1594</t>
-  </si>
-  <si>
-    <t>1574</t>
-  </si>
-  <si>
-    <t>1565</t>
-  </si>
-  <si>
-    <t>1639</t>
-  </si>
-  <si>
-    <t>1583</t>
-  </si>
-  <si>
-    <t>1645</t>
-  </si>
-  <si>
-    <t>1749</t>
-  </si>
-  <si>
-    <t>1780</t>
-  </si>
-  <si>
-    <t>1770</t>
-  </si>
-  <si>
-    <t>1771</t>
-  </si>
-  <si>
-    <t>1766</t>
-  </si>
-  <si>
-    <t>1861</t>
-  </si>
-  <si>
-    <t>1860</t>
-  </si>
-  <si>
-    <t>1839</t>
-  </si>
-  <si>
-    <t>1817</t>
-  </si>
-  <si>
-    <t>1931</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>2124</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2071</t>
-  </si>
-  <si>
-    <t>2033</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2029</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>2025</t>
-  </si>
-  <si>
-    <t>2044</t>
-  </si>
-  <si>
-    <t>2143</t>
-  </si>
-  <si>
-    <t>2178</t>
-  </si>
-  <si>
-    <t>2216</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2275</t>
-  </si>
-  <si>
-    <t>2341</t>
-  </si>
-  <si>
-    <t>2379</t>
-  </si>
-  <si>
-    <t>2428</t>
-  </si>
-  <si>
-    <t>2397</t>
-  </si>
-  <si>
-    <t>2469</t>
-  </si>
-  <si>
-    <t>2565</t>
-  </si>
-  <si>
-    <t>2598</t>
-  </si>
-  <si>
-    <t>2686</t>
-  </si>
-  <si>
-    <t>2740</t>
-  </si>
-  <si>
-    <t>2775</t>
-  </si>
-  <si>
-    <t>2848</t>
-  </si>
-  <si>
-    <t>2905</t>
-  </si>
-  <si>
-    <t>2985</t>
-  </si>
-  <si>
-    <t>2871</t>
-  </si>
-  <si>
-    <t>2893</t>
-  </si>
-  <si>
-    <t>3008</t>
-  </si>
-  <si>
-    <t>3083</t>
-  </si>
-  <si>
-    <t>3104</t>
-  </si>
-  <si>
-    <t>3152</t>
-  </si>
-  <si>
-    <t>3245</t>
-  </si>
-  <si>
-    <t>3254</t>
-  </si>
-  <si>
-    <t>3275</t>
-  </si>
-  <si>
-    <t>3348</t>
-  </si>
-  <si>
-    <t>3408</t>
+    <t>1286</t>
+  </si>
+  <si>
+    <t>1511</t>
+  </si>
+  <si>
+    <t>1497</t>
+  </si>
+  <si>
+    <t>1674</t>
+  </si>
+  <si>
+    <t>1572</t>
+  </si>
+  <si>
+    <t>2276</t>
+  </si>
+  <si>
+    <t>2244</t>
+  </si>
+  <si>
+    <t>2273</t>
+  </si>
+  <si>
+    <t>2252</t>
+  </si>
+  <si>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>2263</t>
+  </si>
+  <si>
+    <t>2440</t>
+  </si>
+  <si>
+    <t>2541</t>
+  </si>
+  <si>
+    <t>2509</t>
+  </si>
+  <si>
+    <t>2495</t>
+  </si>
+  <si>
+    <t>2613</t>
+  </si>
+  <si>
+    <t>2523</t>
+  </si>
+  <si>
+    <t>2622</t>
+  </si>
+  <si>
+    <t>2788</t>
+  </si>
+  <si>
+    <t>2837</t>
+  </si>
+  <si>
+    <t>2821</t>
+  </si>
+  <si>
+    <t>2823</t>
+  </si>
+  <si>
+    <t>2815</t>
+  </si>
+  <si>
+    <t>2966</t>
+  </si>
+  <si>
+    <t>2965</t>
+  </si>
+  <si>
+    <t>2931</t>
+  </si>
+  <si>
+    <t>2896</t>
+  </si>
+  <si>
+    <t>3078</t>
+  </si>
+  <si>
+    <t>3186</t>
+  </si>
+  <si>
+    <t>3386</t>
+  </si>
+  <si>
+    <t>3366</t>
+  </si>
+  <si>
+    <t>3301</t>
+  </si>
+  <si>
+    <t>3241</t>
+  </si>
+  <si>
+    <t>3352</t>
+  </si>
+  <si>
+    <t>3234</t>
+  </si>
+  <si>
+    <t>3174</t>
+  </si>
+  <si>
+    <t>3228</t>
+  </si>
+  <si>
+    <t>3258</t>
+  </si>
+  <si>
+    <t>3416</t>
+  </si>
+  <si>
+    <t>3472</t>
+  </si>
+  <si>
+    <t>3532</t>
   </si>
   <si>
     <t>3524</t>
   </si>
   <si>
-    <t>3648</t>
-  </si>
-  <si>
-    <t>3059</t>
-  </si>
-  <si>
-    <t>2899</t>
-  </si>
-  <si>
-    <t>2935</t>
-  </si>
-  <si>
-    <t>2952</t>
-  </si>
-  <si>
-    <t>2983</t>
-  </si>
-  <si>
-    <t>2586</t>
-  </si>
-  <si>
-    <t>2796</t>
-  </si>
-  <si>
-    <t>3078</t>
-  </si>
-  <si>
-    <t>3331</t>
-  </si>
-  <si>
-    <t>2750</t>
-  </si>
-  <si>
-    <t>3199</t>
-  </si>
-  <si>
-    <t>3532</t>
-  </si>
-  <si>
-    <t>3605</t>
-  </si>
-  <si>
-    <t>3941</t>
-  </si>
-  <si>
-    <t>4090</t>
-  </si>
-  <si>
-    <t>4051</t>
-  </si>
-  <si>
-    <t>3973</t>
-  </si>
-  <si>
-    <t>3652</t>
-  </si>
-  <si>
-    <t>3362</t>
-  </si>
-  <si>
-    <t>3556</t>
-  </si>
-  <si>
-    <t>3858</t>
-  </si>
-  <si>
-    <t>4120</t>
-  </si>
-  <si>
-    <t>4451</t>
-  </si>
-  <si>
-    <t>4685</t>
-  </si>
-  <si>
-    <t>4994</t>
-  </si>
-  <si>
-    <t>5406</t>
-  </si>
-  <si>
-    <t>5403</t>
-  </si>
-  <si>
-    <t>5711</t>
-  </si>
-  <si>
-    <t>5740</t>
-  </si>
-  <si>
-    <t>5890</t>
-  </si>
-  <si>
-    <t>6084</t>
-  </si>
-  <si>
-    <t>4514</t>
-  </si>
-  <si>
-    <t>2217</t>
-  </si>
-  <si>
-    <t>2436</t>
-  </si>
-  <si>
-    <t>2834</t>
-  </si>
-  <si>
-    <t>3282</t>
-  </si>
-  <si>
-    <t>3881</t>
-  </si>
-  <si>
-    <t>4206</t>
-  </si>
-  <si>
-    <t>4553</t>
-  </si>
-  <si>
-    <t>4905</t>
-  </si>
-  <si>
-    <t>5247</t>
-  </si>
-  <si>
-    <t>5797</t>
-  </si>
-  <si>
-    <t>6177</t>
-  </si>
-  <si>
-    <t>6492</t>
-  </si>
-  <si>
-    <t>6737</t>
-  </si>
-  <si>
-    <t>7177</t>
-  </si>
-  <si>
-    <t>7705</t>
-  </si>
-  <si>
-    <t>7952</t>
-  </si>
-  <si>
-    <t>8222</t>
-  </si>
-  <si>
-    <t>8386</t>
-  </si>
-  <si>
-    <t>8822</t>
-  </si>
-  <si>
-    <t>9186</t>
-  </si>
-  <si>
-    <t>9388</t>
-  </si>
-  <si>
-    <t>9397</t>
-  </si>
-  <si>
-    <t>9864</t>
-  </si>
-  <si>
-    <t>10440</t>
-  </si>
-  <si>
-    <t>10839</t>
-  </si>
-  <si>
-    <t>11077</t>
-  </si>
-  <si>
-    <t>11481</t>
-  </si>
-  <si>
-    <t>11966</t>
-  </si>
-  <si>
-    <t>12063</t>
-  </si>
-  <si>
-    <t>12041</t>
-  </si>
-  <si>
-    <t>12684</t>
-  </si>
-  <si>
-    <t>13072</t>
-  </si>
-  <si>
-    <t>13455</t>
-  </si>
-  <si>
-    <t>13993</t>
-  </si>
-  <si>
-    <t>14114</t>
-  </si>
-  <si>
-    <t>14149</t>
-  </si>
-  <si>
-    <t>14040</t>
-  </si>
-  <si>
-    <t>14329</t>
-  </si>
-  <si>
-    <t>14783</t>
-  </si>
-  <si>
-    <t>15140</t>
-  </si>
-  <si>
-    <t>15469</t>
-  </si>
-  <si>
-    <t>15701</t>
-  </si>
-  <si>
-    <t>16160</t>
-  </si>
-  <si>
-    <t>16558</t>
-  </si>
-  <si>
-    <t>15928.8451</t>
-  </si>
-  <si>
-    <t>16649.5235017</t>
-  </si>
-  <si>
-    <t>16890.5605119</t>
-  </si>
-  <si>
-    <t>16644.6802427</t>
-  </si>
-  <si>
-    <t>17027.7861729</t>
-  </si>
-  <si>
-    <t>17298.8191083</t>
-  </si>
-  <si>
-    <t>17420.2208091</t>
-  </si>
-  <si>
-    <t>17708.5252156</t>
-  </si>
-  <si>
-    <t>18028.8807358</t>
-  </si>
-  <si>
-    <t>18380.0436231</t>
-  </si>
-  <si>
-    <t>18943.5163754</t>
-  </si>
-  <si>
-    <t>19156.6898963</t>
-  </si>
-  <si>
-    <t>19140.3783462</t>
-  </si>
-  <si>
-    <t>19087.5722402</t>
-  </si>
-  <si>
-    <t>19283.6704873</t>
-  </si>
-  <si>
-    <t>19417.0570216</t>
-  </si>
-  <si>
-    <t>20040.6203181</t>
-  </si>
-  <si>
-    <t>20546.9361074</t>
-  </si>
-  <si>
-    <t>20801.4374438</t>
-  </si>
-  <si>
-    <t>19789.8454372</t>
-  </si>
-  <si>
-    <t>20661.4454357</t>
+    <t>3626</t>
+  </si>
+  <si>
+    <t>3732</t>
+  </si>
+  <si>
+    <t>3792</t>
+  </si>
+  <si>
+    <t>3870</t>
+  </si>
+  <si>
+    <t>3821</t>
+  </si>
+  <si>
+    <t>3936</t>
+  </si>
+  <si>
+    <t>4089</t>
+  </si>
+  <si>
+    <t>4141</t>
+  </si>
+  <si>
+    <t>4281</t>
+  </si>
+  <si>
+    <t>4368</t>
+  </si>
+  <si>
+    <t>4423</t>
+  </si>
+  <si>
+    <t>4540</t>
+  </si>
+  <si>
+    <t>4631</t>
+  </si>
+  <si>
+    <t>4758</t>
+  </si>
+  <si>
+    <t>4576</t>
+  </si>
+  <si>
+    <t>4611</t>
+  </si>
+  <si>
+    <t>4795</t>
+  </si>
+  <si>
+    <t>4914</t>
+  </si>
+  <si>
+    <t>4948</t>
+  </si>
+  <si>
+    <t>5024</t>
+  </si>
+  <si>
+    <t>5172</t>
+  </si>
+  <si>
+    <t>5187</t>
+  </si>
+  <si>
+    <t>5220</t>
+  </si>
+  <si>
+    <t>5337</t>
+  </si>
+  <si>
+    <t>5432</t>
+  </si>
+  <si>
+    <t>5617</t>
+  </si>
+  <si>
+    <t>5815</t>
+  </si>
+  <si>
+    <t>4876</t>
+  </si>
+  <si>
+    <t>4621</t>
+  </si>
+  <si>
+    <t>4678</t>
+  </si>
+  <si>
+    <t>4705</t>
+  </si>
+  <si>
+    <t>4755</t>
+  </si>
+  <si>
+    <t>4122</t>
+  </si>
+  <si>
+    <t>4457</t>
+  </si>
+  <si>
+    <t>4906</t>
+  </si>
+  <si>
+    <t>5310</t>
+  </si>
+  <si>
+    <t>4383</t>
+  </si>
+  <si>
+    <t>5099</t>
+  </si>
+  <si>
+    <t>5630</t>
+  </si>
+  <si>
+    <t>5746</t>
+  </si>
+  <si>
+    <t>6282</t>
+  </si>
+  <si>
+    <t>6519</t>
+  </si>
+  <si>
+    <t>6457</t>
+  </si>
+  <si>
+    <t>6333</t>
+  </si>
+  <si>
+    <t>5821</t>
+  </si>
+  <si>
+    <t>5359</t>
+  </si>
+  <si>
+    <t>5668</t>
+  </si>
+  <si>
+    <t>6150</t>
+  </si>
+  <si>
+    <t>6567</t>
+  </si>
+  <si>
+    <t>7095</t>
+  </si>
+  <si>
+    <t>7468</t>
+  </si>
+  <si>
+    <t>7960</t>
+  </si>
+  <si>
+    <t>8617</t>
+  </si>
+  <si>
+    <t>8612</t>
+  </si>
+  <si>
+    <t>9103</t>
+  </si>
+  <si>
+    <t>9149</t>
+  </si>
+  <si>
+    <t>9389</t>
+  </si>
+  <si>
+    <t>9698</t>
+  </si>
+  <si>
+    <t>7195</t>
+  </si>
+  <si>
+    <t>3534</t>
+  </si>
+  <si>
+    <t>3883</t>
+  </si>
+  <si>
+    <t>4517</t>
+  </si>
+  <si>
+    <t>5231</t>
+  </si>
+  <si>
+    <t>6186</t>
+  </si>
+  <si>
+    <t>6704</t>
+  </si>
+  <si>
+    <t>7257</t>
+  </si>
+  <si>
+    <t>7818</t>
+  </si>
+  <si>
+    <t>8364</t>
+  </si>
+  <si>
+    <t>9240</t>
+  </si>
+  <si>
+    <t>9846</t>
+  </si>
+  <si>
+    <t>10348</t>
+  </si>
+  <si>
+    <t>10739</t>
+  </si>
+  <si>
+    <t>11440</t>
+  </si>
+  <si>
+    <t>12282</t>
+  </si>
+  <si>
+    <t>12675</t>
+  </si>
+  <si>
+    <t>13106</t>
+  </si>
+  <si>
+    <t>13367</t>
+  </si>
+  <si>
+    <t>14062</t>
+  </si>
+  <si>
+    <t>14642</t>
+  </si>
+  <si>
+    <t>14964</t>
+  </si>
+  <si>
+    <t>14979</t>
+  </si>
+  <si>
+    <t>15723</t>
+  </si>
+  <si>
+    <t>16641</t>
+  </si>
+  <si>
+    <t>17277</t>
+  </si>
+  <si>
+    <t>17657</t>
+  </si>
+  <si>
+    <t>18301</t>
+  </si>
+  <si>
+    <t>19074</t>
+  </si>
+  <si>
+    <t>19228</t>
+  </si>
+  <si>
+    <t>19193</t>
+  </si>
+  <si>
+    <t>20218</t>
+  </si>
+  <si>
+    <t>20837</t>
+  </si>
+  <si>
+    <t>21447</t>
+  </si>
+  <si>
+    <t>22305</t>
+  </si>
+  <si>
+    <t>22497</t>
+  </si>
+  <si>
+    <t>22553</t>
+  </si>
+  <si>
+    <t>22380</t>
+  </si>
+  <si>
+    <t>22840</t>
+  </si>
+  <si>
+    <t>23564</t>
+  </si>
+  <si>
+    <t>24133</t>
+  </si>
+  <si>
+    <t>24657</t>
+  </si>
+  <si>
+    <t>25027</t>
+  </si>
+  <si>
+    <t>25759</t>
+  </si>
+  <si>
+    <t>26393</t>
+  </si>
+  <si>
+    <t>25391</t>
+  </si>
+  <si>
+    <t>26769.960305853</t>
+  </si>
+  <si>
+    <t>27385.0555597794</t>
+  </si>
+  <si>
+    <t>27250.7005574777</t>
+  </si>
+  <si>
+    <t>28140.0558753554</t>
+  </si>
+  <si>
+    <t>28868.9461660833</t>
+  </si>
+  <si>
+    <t>29349.9828354558</t>
+  </si>
+  <si>
+    <t>30186.9444407555</t>
+  </si>
+  <si>
+    <t>31129.5843976566</t>
+  </si>
+  <si>
+    <t>32087.6039588508</t>
+  </si>
+  <si>
+    <t>33367.2838090657</t>
+  </si>
+  <si>
+    <t>34260.287632777</t>
+  </si>
+  <si>
+    <t>34590.930161486</t>
+  </si>
+  <si>
+    <t>34716.4405462159</t>
+  </si>
+  <si>
+    <t>35528.713472379</t>
+  </si>
+  <si>
+    <t>36205.5749842271</t>
+  </si>
+  <si>
+    <t>38014.1368531027</t>
+  </si>
+  <si>
+    <t>39752.2067371978</t>
+  </si>
+  <si>
+    <t>40715.4341729467</t>
+  </si>
+  <si>
+    <t>38962.9387026632</t>
+  </si>
+  <si>
+    <t>41109.5818188755</t>
+  </si>
+  <si>
+    <t>43189</t>
+  </si>
+  <si>
+    <t>43320</t>
+  </si>
+  <si>
+    <t>43413</t>
+  </si>
+  <si>
+    <t>43922</t>
+  </si>
+  <si>
+    <t>44293</t>
+  </si>
+  <si>
+    <t>44689</t>
   </si>
   <si>
     <t>Description</t>
@@ -6095,7 +6113,7 @@
         <v>1820.0</v>
       </c>
       <c r="E322" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="323">
@@ -9326,6 +9344,108 @@
       </c>
       <c r="E512" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="B513" t="s">
+        <v>5</v>
+      </c>
+      <c r="C513" t="s">
+        <v>6</v>
+      </c>
+      <c r="D513" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E513" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="B514" t="s">
+        <v>5</v>
+      </c>
+      <c r="C514" t="s">
+        <v>6</v>
+      </c>
+      <c r="D514" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E514" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="B515" t="s">
+        <v>5</v>
+      </c>
+      <c r="C515" t="s">
+        <v>6</v>
+      </c>
+      <c r="D515" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E515" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="B516" t="s">
+        <v>5</v>
+      </c>
+      <c r="C516" t="s">
+        <v>6</v>
+      </c>
+      <c r="D516" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E516" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="B517" t="s">
+        <v>5</v>
+      </c>
+      <c r="C517" t="s">
+        <v>6</v>
+      </c>
+      <c r="D517" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E517" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="B518" t="s">
+        <v>5</v>
+      </c>
+      <c r="C518" t="s">
+        <v>6</v>
+      </c>
+      <c r="D518" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E518" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -9343,50 +9463,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
